--- a/medicine/Enfance/Alice_et_le_Tigre_de_jade/Alice_et_le_Tigre_de_jade.xlsx
+++ b/medicine/Enfance/Alice_et_le_Tigre_de_jade/Alice_et_le_Tigre_de_jade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Tigre de jade (titre original : The Mystery of the Jade Tiger, littéralement : Le Mystère du tigre de jade), est le 104e[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs.  
+Alice et le Tigre de jade (titre original : The Mystery of the Jade Tiger, littéralement : Le Mystère du tigre de jade), est le 104e roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs.  
 Aux États-Unis, le roman a été publié pour la première fois en 1991 par Simon &amp; Schuster, New York. En France, il a paru pour la première fois en 1993 chez Hachette dans la collection « Bibliothèque verte » sous le no 488. 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition parue en 1993 en langue française.
 Bess va être demoiselle d'honneur au mariage de son amie d'enfance Joan Koslow, une photographe qui vit à présent en Californie. Celle-ci a également invité Alice et Marion au mariage.
@@ -549,13 +563,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, détective amateur de dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
-James Roy, avocat [2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, détective amateur de dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
+James Roy, avocat  de renom, père d'Alice Roy, veuf.
 Bess Taylor (ici appelée Bess Marvin), jeune fille blonde et rondelette, une des meilleures amies d'Alice.
-Marion Webb (ici appelée Marion Fayne), jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-Personnages spécifiques à ce roman
-Joan Koslow, jeune photographe, amie d'enfance de Bess.
+Marion Webb (ici appelée Marion Fayne), jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Tigre_de_jade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Tigre_de_jade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joan Koslow, jeune photographe, amie d'enfance de Bess.
 Keith, le fiancé de Joan Koslow, étudiant en histoire de l'art asiatique.
 Terry Kirkland, 45 ans, ami de James Roy, artiste veuf.
 Amy Kirkland, la petite fille de Terry Kirkland, Vietnamienne par sa mère.
@@ -566,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_le_Tigre_de_jade</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Tigre_de_jade</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Édition française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1993 : Hachette, collection Bibliothèque verte no 488, souple (français, version originale). Traduction de Sandrine Couprie. Illustré par Philippe Daure (7 illustrations in-texte de pleine page en noir et blanc.). 17 chapitres. 221 p. </t>
         </is>
